--- a/doc/ue_charactermovementcomponent.xlsx
+++ b/doc/ue_charactermovementcomponent.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411EFEEB-159C-413A-BCD5-03B143F5113F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="重力" sheetId="1" r:id="rId1"/>
+    <sheet name="简介" sheetId="2" r:id="rId1"/>
+    <sheet name="重力" sheetId="1" r:id="rId2"/>
+    <sheet name="普通移动" sheetId="3" r:id="rId3"/>
+    <sheet name="NavMesh移动" sheetId="4" r:id="rId4"/>
+    <sheet name="Jump跳跃" sheetId="5" r:id="rId5"/>
+    <sheet name="游泳" sheetId="6" r:id="rId6"/>
+    <sheet name="飞行" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
   <si>
     <t>void UCharacterMovementComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
   </si>
@@ -93,13 +98,418 @@
   </si>
   <si>
     <t>CharacterMovementComponent.h</t>
+  </si>
+  <si>
+    <t>CharacterMovementComponent</t>
+  </si>
+  <si>
+    <t>移动的模式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Movement modes for Characters. */</t>
+  </si>
+  <si>
+    <t>UENUM(BlueprintType)</t>
+  </si>
+  <si>
+    <t>enum EMovementMode</t>
+  </si>
+  <si>
+    <t>/** None (movement is disabled). */</t>
+  </si>
+  <si>
+    <t>MOVE_None</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName="None"),</t>
+  </si>
+  <si>
+    <t>/** Walking on a surface. */</t>
+  </si>
+  <si>
+    <t>MOVE_Walking</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName="Walking"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/** </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Simplified walking on navigation data (e.g. navmesh). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * If GetGenerateOverlapEvents() is true, then we will perform sweeps with each navmesh move.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * If GetGenerateOverlapEvents() is false then movement is cheaper but characters can overlap other objects without some extra process to repel/resolve their collisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>MOVE_NavWalking</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName="Navmesh Walking"),</t>
+  </si>
+  <si>
+    <t>/** Falling under the effects of gravity, such as after jumping or walking off the edge of a surface. */</t>
+  </si>
+  <si>
+    <t>MOVE_Falling</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName="Falling"),</t>
+  </si>
+  <si>
+    <t>/** Swimming through a fluid volume, under the effects of gravity and buoyancy. */</t>
+  </si>
+  <si>
+    <t>MOVE_Swimming</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName="Swimming"),</t>
+  </si>
+  <si>
+    <t>/** Flying, ignoring the effects of gravity. Affected by the current physics volume's fluid friction. */</t>
+  </si>
+  <si>
+    <t>MOVE_Flying</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName="Flying"),</t>
+  </si>
+  <si>
+    <t>/** User-defined custom movement mode, including many possible sub-modes. */</t>
+  </si>
+  <si>
+    <t>MOVE_Custom</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName="Custom"),</t>
+  </si>
+  <si>
+    <t>MOVE_MAX</t>
+  </si>
+  <si>
+    <t>UMETA(Hidden),</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>走动中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nav走动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实就是一个状态机，在Tick里面，肯定不同的状态做不同的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如通过键盘操作一直往前走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerInputComponent-&gt;BindAxis("MoveForward", this, &amp;AMyTest001Character::MoveForward);</t>
+  </si>
+  <si>
+    <t>注册InputComponent事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AMyTest001Character::MoveForward(float Value)</t>
+  </si>
+  <si>
+    <t>if ((Controller != nullptr) &amp;&amp; (Value != 0.0f))</t>
+  </si>
+  <si>
+    <t>// find out which way is forward</t>
+  </si>
+  <si>
+    <t>const FRotator Rotation = Controller-&gt;GetControlRotation();</t>
+  </si>
+  <si>
+    <t>const FRotator YawRotation(0, Rotation.Yaw, 0);</t>
+  </si>
+  <si>
+    <t>// get forward vector</t>
+  </si>
+  <si>
+    <t>const FVector Direction = FRotationMatrix(YawRotation).GetUnitAxis(EAxis::X);</t>
+  </si>
+  <si>
+    <t>AddMovementInput(Direction, Value);</t>
+  </si>
+  <si>
+    <t>在响应里面根据朝向，设置偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::AddMovementInput(FVector WorldDirection, float ScaleValue, bool bForce /*=false*/)</t>
+  </si>
+  <si>
+    <t>MovementComponent-&gt;AddInputVector(WorldDirection * ScaleValue, bForce);</t>
+  </si>
+  <si>
+    <t>调用Move组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UPawnMovementComponent::AddInputVector(FVector WorldAccel, bool bForce /*=false*/)</t>
+  </si>
+  <si>
+    <t>PawnOwner-&gt;Internal_AddMovementInput(WorldAccel, bForce);</t>
+  </si>
+  <si>
+    <t>由调回到Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::Internal_AddMovementInput(FVector WorldAccel, bool bForce /*=false*/)</t>
+  </si>
+  <si>
+    <t>if (bForce || !IsMoveInputIgnored())</t>
+  </si>
+  <si>
+    <t>ControlInputVector += WorldAccel;</t>
+  </si>
+  <si>
+    <t>设置内部的变量而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每帧处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FVector InputVector = ConsumeInputVector();</t>
+  </si>
+  <si>
+    <t>获取之前的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Allow root motion to move characters that have no controller.</t>
+  </si>
+  <si>
+    <t>if (CharacterOwner-&gt;IsLocallyControlled() || (!CharacterOwner-&gt;Controller &amp;&amp; bRunPhysicsWithNoController) || (!CharacterOwner-&gt;Controller &amp;&amp; CharacterOwner-&gt;IsPlayingRootMotion()))</t>
+  </si>
+  <si>
+    <t>ControlledCharacterMove(InputVector, DeltaTime);</t>
+  </si>
+  <si>
+    <t>具体的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::ControlledCharacterMove(const FVector&amp; InputVector, float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>Acceleration = ScaleInputAcceleration(ConstrainInputAcceleration(InputVector));</t>
+  </si>
+  <si>
+    <t>换算以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerformMovement(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::PerformMovement(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>默认是根据floor进行判断的，没有floor的地方就变成falling了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认情况，玩家的MoveComponent的movemode就是walking！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// change position</t>
+  </si>
+  <si>
+    <t>StartNewPhysics(DeltaSeconds, 0)</t>
+  </si>
+  <si>
+    <t>内部根据当前状态做不同的处理，里面判断当前是Walking，就会由移动的操作，且还有碰撞检测，floor等处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::StartNewPhysics(float deltaTime, int32 Iterations)</t>
+  </si>
+  <si>
+    <t>这个函数重要，里面会根据movemode进行单独判读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case MOVE_Walking:</t>
+  </si>
+  <si>
+    <t>PhysWalking(deltaTime, Iterations);</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>当前Walking，就执行对应的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// try to move forward</t>
+  </si>
+  <si>
+    <t>MoveAlongFloor(MoveVelocity, timeTick, &amp;StepDownResult);</t>
+  </si>
+  <si>
+    <t>在地面移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::MoveAlongFloor(const FVector&amp; InVelocity, float DeltaSeconds, FStepDownResult* OutStepDownResult)</t>
+  </si>
+  <si>
+    <t>SafeMoveUpdatedComponent(RampVector, UpdatedComponent-&gt;GetComponentQuat(), true, Hit);</t>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bMoveResult = MoveUpdatedComponent(Delta, NewRotation, bSweep, &amp;OutHit, Teleport);</t>
+  </si>
+  <si>
+    <t>bool UMovementComponent::MoveUpdatedComponentImpl( const FVector&amp; Delta, const FQuat&amp; NewRotation, bool bSweep, FHitResult* OutHit, ETeleportType Teleport)</t>
+  </si>
+  <si>
+    <t>bool UPrimitiveComponent::MoveComponentImpl( const FVector&amp; Delta, const FQuat&amp; NewRotationQuat, bool bSweep, FHitResult* OutHit, EMoveComponentFlags MoveFlags, ETeleportType Teleport)</t>
+  </si>
+  <si>
+    <t>具体的位置和朝向都在USceneComponet里面，也在这个里面设置的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool USceneComponent::InternalSetWorldLocationAndRotation(FVector NewLocation, const FQuat&amp; RotationQuat, bool bNoPhysics, ETeleportType Teleport)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UMovementComponent::SafeMoveUpdatedComponent(const FVector&amp; Delta, const FQuat&amp; NewRotation, bool bSweep, FHitResult&amp; OutHit, ETeleportType Teleport)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::PhysWalking(float deltaTime, int32 Iterations)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的属于最终换算成Velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在每帧的处理里面，Velocity会乘以间隔时间，算出来偏移值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次移动后，会进行换算，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velocity怎么变化的？？？？！！！！（尤其是最开始输入后，怎么变成0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::ApplyVelocityBraking(float DeltaTime, float Friction, float BrakingDeceleration)</t>
+  </si>
+  <si>
+    <t>这个函数里面会重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！重要，这个函数里面会判断前进移动碰撞检测等，如果由碰撞物体，则走不了了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool const bHadBlockingHit = MyWorld-&gt;ComponentSweepMulti(Hits, this, TraceStart, TraceEnd, InitialRotationQuat, Params);</t>
+  </si>
+  <si>
+    <t>几个问题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1按键往前走怎么触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2行走是动作怎么播放的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3前方碰撞物体怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部碰撞使用的是Physics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +540,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,10 +569,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -210,6 +629,49 @@
         <a:xfrm>
           <a:off x="1371600" y="7058025"/>
           <a:ext cx="12514286" cy="4647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>83783</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>18117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="13182600"/>
+          <a:ext cx="15533333" cy="7466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -483,11 +945,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="3"/>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="3"/>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D20" s="3"/>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="3"/>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="3"/>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="3"/>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,4 +1284,526 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:S78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E54" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E58" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>112</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E69" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E75" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E78" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_charactermovementcomponent.xlsx
+++ b/doc/ue_charactermovementcomponent.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED74F9C-4FD4-4EA3-965E-D5187762D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="2" r:id="rId1"/>
@@ -19,6 +20,7 @@
     <sheet name="Jump跳跃" sheetId="5" r:id="rId5"/>
     <sheet name="游泳" sheetId="6" r:id="rId6"/>
     <sheet name="飞行" sheetId="7" r:id="rId7"/>
+    <sheet name="站立的Z轴位置" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="175">
   <si>
     <t>void UCharacterMovementComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
   </si>
@@ -200,10 +202,6 @@
     <t>};</t>
   </si>
   <si>
-    <t>走动中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nav走动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,12 +501,141 @@
   <si>
     <t>内部碰撞使用的是Physics</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家怎么实时更新Z轴的位置？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartNewPhysics(DeltaSeconds, 0);</t>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::PhysWalking(float deltaTime, int32 Iterations)</t>
+  </si>
+  <si>
+    <t>不管当前是否在移动中，都会进行地面站立的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有移动的向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindFloor(UpdatedComponent-&gt;GetComponentLocation(), CurrentFloor, bZeroDelta, NULL);</t>
+  </si>
+  <si>
+    <t>先判断是否移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果检测到玩家在地面之下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else if (CurrentFloor.HitResult.bStartPenetrating &amp;&amp; remainingTime &lt;= 0.f)</t>
+  </si>
+  <si>
+    <t>// The floor check failed because it started in penetration</t>
+  </si>
+  <si>
+    <t>// We do not want to try to move downward because the downward sweep failed, rather we'd like to try to pop out of the floor.</t>
+  </si>
+  <si>
+    <t>FHitResult Hit(CurrentFloor.HitResult);</t>
+  </si>
+  <si>
+    <t>Hit.TraceEnd = Hit.TraceStart + FVector(0.f, 0.f, MAX_FLOOR_DIST);</t>
+  </si>
+  <si>
+    <t>const FVector RequestedAdjustment = GetPenetrationAdjustment(Hit);</t>
+  </si>
+  <si>
+    <t>bForceNextFloorCheck = true;</t>
+  </si>
+  <si>
+    <t>穿透了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个里面会修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT里面包含了所有的对象，包括目标高度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果这个不可站立，那么CurrentFloor返回bWalkableFloor=false，就会执行下面的修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bMoved = InternalSetWorldLocationAndRotation(NewLocation, NewRotationQuat, bSkipPhysicsMove, Teleport);</t>
+  </si>
+  <si>
+    <t>ResolvePenetration(RequestedAdjustment, Hit, UpdatedComponent-&gt;GetComponentQuat());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResolvePenetration内部会进行判断，修正Z的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE中其实对人物的Z轴是每帧都计算的，在普通moving模式下，每帧计算Z轴，如果设置不合法就强制合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (CurrentFloor.IsWalkableFloor())</t>
+  </si>
+  <si>
+    <t>AdjustFloorHeight();</t>
+  </si>
+  <si>
+    <t>这个也需要注意一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也会进行修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在重力作用下下落，或者从表面边缘跳下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走到没有地面的地方也是该方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在重力和浮力的作用下，在液体中游泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行，忽略重力的影响。受当前物理体积的流体摩擦影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jerish.blog.csdn.net/article/details/78669508?spm=1001.2101.3001.6650.1&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1-78669508-blog-120284069.pc_relevant_antiscanv3&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1-78669508-blog-120284069.pc_relevant_antiscanv3&amp;utm_relevant_index=2</t>
+  </si>
+  <si>
+    <t>bool UPrimitiveComponent::MoveComponentImpl( const FVector&amp; Delta, const FQuat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,7 +784,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -945,11 +1078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,6 +1090,11 @@
     <col min="6" max="6" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
@@ -970,7 +1108,7 @@
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -1013,7 +1151,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -1022,42 +1160,42 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
       <c r="F18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
       <c r="F19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
       <c r="F20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="F21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="F22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -1066,18 +1204,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
       <c r="F25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="O25" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -1085,19 +1226,22 @@
       <c r="G26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="O26" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
       <c r="F28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
@@ -1105,19 +1249,22 @@
       <c r="G29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="O29" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
       <c r="F31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>46</v>
@@ -1125,16 +1272,19 @@
       <c r="H32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="O32" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
         <v>49</v>
       </c>
@@ -1142,7 +1292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
         <v>51</v>
       </c>
@@ -1150,9 +1300,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1163,10 +1318,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -1287,11 +1442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1301,16 +1456,16 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
@@ -1320,29 +1475,32 @@
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2"/>
+      <c r="M6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
@@ -1350,17 +1508,17 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
@@ -1368,29 +1526,29 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.2">
@@ -1398,20 +1556,20 @@
         <v>2</v>
       </c>
       <c r="P17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.2">
@@ -1421,32 +1579,32 @@
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N22" s="3"/>
     </row>
@@ -1455,24 +1613,24 @@
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.2">
@@ -1487,47 +1645,47 @@
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -1537,7 +1695,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -1550,12 +1708,12 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -1565,22 +1723,22 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="4:15" x14ac:dyDescent="0.2">
@@ -1590,10 +1748,10 @@
     </row>
     <row r="51" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="52" spans="4:15" x14ac:dyDescent="0.2">
@@ -1603,141 +1761,141 @@
     </row>
     <row r="53" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
+        <v>104</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="62" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
+        <v>111</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E75" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E78" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1749,60 +1907,295 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEE0D3B-5508-4EE0-9D3D-75D31BDE6423}">
+  <dimension ref="B3:R43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+      <c r="E27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="E28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/ue_charactermovementcomponent.xlsx
+++ b/doc/ue_charactermovementcomponent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED74F9C-4FD4-4EA3-965E-D5187762D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F102683-9826-4D65-B6E3-D9A605FEB32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="游泳" sheetId="6" r:id="rId6"/>
     <sheet name="飞行" sheetId="7" r:id="rId7"/>
     <sheet name="站立的Z轴位置" sheetId="8" r:id="rId8"/>
+    <sheet name="Client-DS同步" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="184">
   <si>
     <t>void UCharacterMovementComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
   </si>
@@ -630,6 +631,38 @@
   </si>
   <si>
     <t>bool UPrimitiveComponent::MoveComponentImpl( const FVector&amp; Delta, const FQuat</t>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (CharacterOwner-&gt;GetLocalRole() == ROLE_Authority)</t>
+  </si>
+  <si>
+    <t>else if (CharacterOwner-&gt;GetLocalRole() == ROLE_AutonomousProxy &amp;&amp; IsNetMode(NM_Client))</t>
+  </si>
+  <si>
+    <t>ReplicateMoveToServer(DeltaSeconds, Acceleration);</t>
+  </si>
+  <si>
+    <t>独立模式或服务器模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！重点看这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::ReplicateMoveToServer(float DeltaTime, const FVector&amp; NewAcceleration)</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -1321,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -1445,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:U64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2199,4 +2232,172 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B06963E-EB25-4BAD-9EA9-F8509C43D6B2}">
+  <dimension ref="A3:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_charactermovementcomponent.xlsx
+++ b/doc/ue_charactermovementcomponent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F102683-9826-4D65-B6E3-D9A605FEB32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981D4433-AEC0-44BD-8817-CA56D524037B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="202">
   <si>
     <t>void UCharacterMovementComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
   </si>
@@ -663,6 +663,68 @@
   </si>
   <si>
     <t>void UCharacterMovementComponent::ReplicateMoveToServer(float DeltaTime, const FVector&amp; NewAcceleration)</t>
+  </si>
+  <si>
+    <t>SavedMoves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成一个最新的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSavedMovePtr NewMovePtr = ClientData-&gt;CreateSavedMove();</t>
+  </si>
+  <si>
+    <t>FSavedMove_Character* const NewMove = NewMovePtr.Get();</t>
+  </si>
+  <si>
+    <t>if (NewMove == nullptr)</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>NewMove-&gt;SetMoveFor(CharacterOwner, DeltaTime, NewAcceleration, *ClientData);</t>
+  </si>
+  <si>
+    <t>如果超过底层最大的数组格式，就全部清空；说明网络不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerformMovement(NewMove-&gt;DeltaTime);</t>
+  </si>
+  <si>
+    <t>真实处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (CharacterOwner-&gt;IsReplicatingMovement())</t>
+  </si>
+  <si>
+    <t>ClientData-&gt;SavedMoves.Push(NewMovePtr);</t>
+  </si>
+  <si>
+    <t>插入列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFUNCTION(unreliable, client)</t>
+  </si>
+  <si>
+    <t>void ClientAckGoodMove(float TimeStamp);</t>
+  </si>
+  <si>
+    <t>服务器反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会将返回的消息包之前的老消息全部删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2236,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B06963E-EB25-4BAD-9EA9-F8509C43D6B2}">
-  <dimension ref="A3:P51"/>
+  <dimension ref="A3:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2384,14 +2446,119 @@
     <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
     </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I36" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>176</v>
       </c>
     </row>

--- a/doc/ue_charactermovementcomponent.xlsx
+++ b/doc/ue_charactermovementcomponent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981D4433-AEC0-44BD-8817-CA56D524037B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE53EF-EA87-4604-8663-AAA9EFEF4C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="飞行" sheetId="7" r:id="rId7"/>
     <sheet name="站立的Z轴位置" sheetId="8" r:id="rId8"/>
     <sheet name="Client-DS同步" sheetId="9" r:id="rId9"/>
+    <sheet name="DS同步客户端移动" sheetId="10" r:id="rId10"/>
+    <sheet name="DS同步客户端移动2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="317">
   <si>
     <t>void UCharacterMovementComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
   </si>
@@ -724,6 +726,377 @@
   </si>
   <si>
     <t>会将返回的消息包之前的老消息全部删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于其他玩家对象的移动，使用的时SimulatedTick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else if (CharacterOwner-&gt;GetLocalRole() == ROLE_SimulatedProxy)</t>
+  </si>
+  <si>
+    <t>if (bShrinkProxyCapsule)</t>
+  </si>
+  <si>
+    <t>AdjustProxyCapsuleSize();</t>
+  </si>
+  <si>
+    <t>SimulatedTick(DeltaTime);</t>
+  </si>
+  <si>
+    <t>本地的其他玩家和对象，走模拟移动操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::SimulatedTick(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>只看最简单的计算方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Avoid moving the mesh during movement if SmoothClientPosition will take care of it.</t>
+  </si>
+  <si>
+    <t>const FScopedPreventAttachedComponentMove PreventMeshMovement(bPreventMeshMovement ? Mesh : nullptr);</t>
+  </si>
+  <si>
+    <t>if (CharacterOwner-&gt;IsMatineeControlled() || CharacterOwner-&gt;IsPlayingRootMotion())</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>SimulateMovement(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>！！！走模拟计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// simulated pawns predict location</t>
+  </si>
+  <si>
+    <t>OldVelocity = Velocity;</t>
+  </si>
+  <si>
+    <t>OldLocation = UpdatedComponent-&gt;GetComponentLocation();</t>
+  </si>
+  <si>
+    <t>获取向量，获取玩家当前位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// May only need to simulate forward on frames where we haven't just received a new position update.</t>
+  </si>
+  <si>
+    <t>if (!bHandledNetUpdate || !bNetworkSkipProxyPredictionOnNetUpdate || !CharacterMovementCVars::NetEnableSkipProxyPredictionOnNetUpdate)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogCharacterMovement, Verbose, TEXT("Proxy %s simulating movement"), *GetNameSafe(CharacterOwner));</t>
+  </si>
+  <si>
+    <t>FStepDownResult StepDownResult;</t>
+  </si>
+  <si>
+    <t>MoveSmooth(Velocity, DeltaSeconds, &amp;StepDownResult);</t>
+  </si>
+  <si>
+    <t>// find floor and check if falling</t>
+  </si>
+  <si>
+    <t>if (IsMovingOnGround() || MovementMode == MOVE_Falling)</t>
+  </si>
+  <si>
+    <t>if (StepDownResult.bComputedFloor)</t>
+  </si>
+  <si>
+    <t>CurrentFloor = StepDownResult.FloorResult;</t>
+  </si>
+  <si>
+    <t>else if (Velocity.Z &lt;= 0.f)</t>
+  </si>
+  <si>
+    <t>FindFloor(UpdatedComponent-&gt;GetComponentLocation(), CurrentFloor, Velocity.IsZero(), NULL);</t>
+  </si>
+  <si>
+    <t>CurrentFloor.Clear();</t>
+  </si>
+  <si>
+    <t>if (!CurrentFloor.IsWalkableFloor())</t>
+  </si>
+  <si>
+    <t>if (!bSimGravityDisabled)</t>
+  </si>
+  <si>
+    <t>// No floor, must fall.</t>
+  </si>
+  <si>
+    <t>if (Velocity.Z &lt;= 0.f || bApplyGravityWhileJumping || !CharacterOwner-&gt;IsJumpProvidingForce())</t>
+  </si>
+  <si>
+    <t>Velocity = NewFallVelocity(Velocity, FVector(0.f, 0.f, GetGravityZ()), DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>SetMovementMode(MOVE_Falling);</t>
+  </si>
+  <si>
+    <t>// Walkable floor</t>
+  </si>
+  <si>
+    <t>if (IsMovingOnGround())</t>
+  </si>
+  <si>
+    <t>SetBase(CurrentFloor.HitResult.Component.Get(), CurrentFloor.HitResult.BoneName);</t>
+  </si>
+  <si>
+    <t>else if (MovementMode == MOVE_Falling)</t>
+  </si>
+  <si>
+    <t>if (CurrentFloor.FloorDist &lt;= MIN_FLOOR_DIST || (bSimGravityDisabled &amp;&amp; CurrentFloor.FloorDist &lt;= MAX_FLOOR_DIST))</t>
+  </si>
+  <si>
+    <t>// Landed</t>
+  </si>
+  <si>
+    <t>SetPostLandedPhysics(CurrentFloor.HitResult);</t>
+  </si>
+  <si>
+    <t>// Continue falling.</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogCharacterMovement, Verbose, TEXT("Proxy %s SKIPPING simulate movement"), *GetNameSafe(CharacterOwner));</t>
+  </si>
+  <si>
+    <t>！！！处理移动，内部会根据玩家坐标进行移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::MoveSmooth(const FVector&amp; InVelocity, const float DeltaSeconds, FStepDownResult* OutStepDownResult)</t>
+  </si>
+  <si>
+    <t>FVector Delta = InVelocity * DeltaSeconds;</t>
+  </si>
+  <si>
+    <t>if (Delta.IsZero())</t>
+  </si>
+  <si>
+    <t>没有移动向量，则不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveAlongFloor(InVelocity, DeltaSeconds, OutStepDownResult);</t>
+  </si>
+  <si>
+    <t>FHitResult Hit(1.f);</t>
+  </si>
+  <si>
+    <t>SafeMoveUpdatedComponent(Delta, UpdatedComponent-&gt;GetComponentQuat(), true, Hit);</t>
+  </si>
+  <si>
+    <t>if (Hit.IsValidBlockingHit())</t>
+  </si>
+  <si>
+    <t>bool bSteppedUp = false;</t>
+  </si>
+  <si>
+    <t>if (IsFlying())</t>
+  </si>
+  <si>
+    <t>if (CanStepUp(Hit))</t>
+  </si>
+  <si>
+    <t>OutStepDownResult = NULL; // No need for a floor when not walking.</t>
+  </si>
+  <si>
+    <t>if (FMath::Abs(Hit.ImpactNormal.Z) &lt; 0.2f)</t>
+  </si>
+  <si>
+    <t>const FVector GravDir = FVector(0.f,0.f,-1.f);</t>
+  </si>
+  <si>
+    <t>const FVector DesiredDir = Delta.GetSafeNormal();</t>
+  </si>
+  <si>
+    <t>const float UpDown = GravDir | DesiredDir;</t>
+  </si>
+  <si>
+    <t>if ((UpDown &lt; 0.5f) &amp;&amp; (UpDown &gt; -0.2f))</t>
+  </si>
+  <si>
+    <t>bSteppedUp = StepUp(GravDir, Delta * (1.f - Hit.Time), Hit, OutStepDownResult);</t>
+  </si>
+  <si>
+    <t>// If StepUp failed, try sliding.</t>
+  </si>
+  <si>
+    <t>if (!bSteppedUp)</t>
+  </si>
+  <si>
+    <t>SlideAlongSurface(Delta, 1.f - Hit.Time, Hit.Normal, Hit, false);</t>
+  </si>
+  <si>
+    <t>！！！正常的移动走这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！游泳，落下等走这个里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！对于模拟的玩家，这个状态时自己计算的，不会同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常的移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须有地面？？？？这个地面何时赋值的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！初始的时候，创建玩家对象的时候就会执行FindFloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ACharacter::PawnClientRestart()</t>
+  </si>
+  <si>
+    <t>void APawn::PawnClientRestart()</t>
+  </si>
+  <si>
+    <t>void ACharacter::Restart()</t>
+  </si>
+  <si>
+    <t>if (CharacterMovement)</t>
+  </si>
+  <si>
+    <t>CharacterMovement-&gt;SetDefaultMovementMode();</t>
+  </si>
+  <si>
+    <t>内部FindFloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::MoveAlongFloor(const FVector&amp; InVelocity, float DeltaSeconds, FStepDownResult* OutStepDownResult)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::SimulateMovement(float DeltaSeconds)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FVector Delta = FVector(InVelocity.X, InVelocity.Y, 0.f) * DeltaSeconds;</t>
+  </si>
+  <si>
+    <t>FVector RampVector = ComputeGroundMovementDelta(Delta, CurrentFloor.HitResult, CurrentFloor.bLineTrace);</t>
+  </si>
+  <si>
+    <t>float LastMoveTimeSlice = DeltaSeconds;</t>
+  </si>
+  <si>
+    <t>先让玩家的组件进行真实的移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UMovementComponent::SafeMoveUpdatedComponent(const FVector&amp; Delta, const FQuat&amp; NewRotation, bool bSweep, FHitResult&amp; OutHit, ETeleportType Teleport)</t>
+  </si>
+  <si>
+    <t>const FVector TraceStart = GetComponentLocation();</t>
+  </si>
+  <si>
+    <t>const FVector TraceEnd = TraceStart + Delta;</t>
+  </si>
+  <si>
+    <t>float DeltaSizeSq = (TraceEnd - TraceStart).SizeSquared();</t>
+  </si>
+  <si>
+    <t>// Recalc here to account for precision loss of float addition</t>
+  </si>
+  <si>
+    <t>const FQuat InitialRotationQuat = GetComponentTransform().GetRotation();</t>
+  </si>
+  <si>
+    <t>获取玩家当前位置，目标位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行World的碰撞查询，然后返回HIT点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置最终的目标为位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果Z&lt;=0，则就需要重新找战力点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会进行碰撞检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class ENGINE_API ACharacter : public APawn</t>
+  </si>
+  <si>
+    <t>void ACharacter::OnRep_ReplicatedMovement()</t>
+  </si>
+  <si>
+    <t>void AActor::OnRep_ReplicatedMovement()</t>
+  </si>
+  <si>
+    <t>PostNetReceiveVelocity(LocalRepMovement.LinearVelocity);</t>
+  </si>
+  <si>
+    <t>PostNetReceiveLocationAndRotation();</t>
+  </si>
+  <si>
+    <t>收到的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::PostNetReceiveVelocity(const FVector&amp; NewVelocity)</t>
+  </si>
+  <si>
+    <t>if (GetLocalRole() == ROLE_SimulatedProxy)</t>
+  </si>
+  <si>
+    <t>UMovementComponent* const MoveComponent = GetMovementComponent();</t>
+  </si>
+  <si>
+    <t>if ( MoveComponent )</t>
+  </si>
+  <si>
+    <t>MoveComponent-&gt;Velocity = NewVelocity;</t>
+  </si>
+  <si>
+    <t>！！！只有模拟玩家才需要更新Velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class ENGINE_API AActor : public UObject</t>
+  </si>
+  <si>
+    <t>private:</t>
+  </si>
+  <si>
+    <t>/** Used for replication of our RootComponent's position and velocity */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditDefaultsOnly, ReplicatedUsing=OnRep_ReplicatedMovement, Category=Replication, AdvancedDisplay)</t>
+  </si>
+  <si>
+    <t>struct FRepMovement ReplicatedMovement;</t>
+  </si>
+  <si>
+    <t>服务器同步的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！不管上面的移动走不走，都会进行FindFllor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +1104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +1143,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -791,11 +1173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1412,6 +1795,923 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A764F07-CE7A-4D9A-ADD7-D921A9CE75B4}">
+  <dimension ref="B2:N104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>224</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954C939-0B98-4283-B0F1-A3D148B685E3}">
+  <dimension ref="B4:X81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>252</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>254</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="S62" t="s">
+        <v>279</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Q69" t="s">
+        <v>117</v>
+      </c>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C70" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="R73" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>230</v>
+      </c>
+      <c r="R74" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="R75" t="s">
+        <v>290</v>
+      </c>
+      <c r="W75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="R76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="R78" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="S78" s="3"/>
+    </row>
+    <row r="79" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="R79" t="s">
+        <v>133</v>
+      </c>
+      <c r="S79" s="3"/>
+    </row>
+    <row r="80" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S80" s="3"/>
+    </row>
+    <row r="81" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K32"/>
@@ -2298,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B06963E-EB25-4BAD-9EA9-F8509C43D6B2}">
-  <dimension ref="A3:P76"/>
+  <dimension ref="A3:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2557,9 +3857,127 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>305</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_charactermovementcomponent.xlsx
+++ b/doc/ue_charactermovementcomponent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE53EF-EA87-4604-8663-AAA9EFEF4C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEA58C-E4BC-4922-9C62-874F027AF0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Client-DS同步" sheetId="9" r:id="rId9"/>
     <sheet name="DS同步客户端移动" sheetId="10" r:id="rId10"/>
     <sheet name="DS同步客户端移动2" sheetId="11" r:id="rId11"/>
+    <sheet name="DS同步客户端移动3" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="348">
   <si>
     <t>void UCharacterMovementComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
   </si>
@@ -1097,6 +1098,114 @@
   </si>
   <si>
     <t>！！！不管上面的移动走不走，都会进行FindFllor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindFloor(UpdatedComponent-&gt;GetComponentLocation(), CurrentFloor, Velocity.IsZero(), NULL);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool const bHadBlockingHit = MyWorld-&gt;ComponentSweepMulti(Hits, this, TraceStart, TraceEnd, InitialRotationQuat, Params);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MESH位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对的胶囊体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对的MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!bNetworkSmoothingComplete)</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_CharacterMovementSmoothClientPosition);</t>
+  </si>
+  <si>
+    <t>SmoothClientPosition(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>是否进行MESH的平滑处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是模拟的玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新移动向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制设置胶囊体位置，设置MESH移动的偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ACharacter::PostNetReceiveLocationAndRotation()</t>
+  </si>
+  <si>
+    <t>if(GetLocalRole() == ROLE_SimulatedProxy)</t>
+  </si>
+  <si>
+    <t>// Don't change transform if using relative position (it should be nearly the same anyway, or base may be slightly out of sync)</t>
+  </si>
+  <si>
+    <t>if (!ReplicatedBasedMovement.HasRelativeLocation())</t>
+  </si>
+  <si>
+    <t>const FRepMovement&amp; ConstRepMovement = GetReplicatedMovement();</t>
+  </si>
+  <si>
+    <t>const FVector OldLocation = GetActorLocation();</t>
+  </si>
+  <si>
+    <t>const FVector NewLocation = FRepMovement::RebaseOntoLocalOrigin(ConstRepMovement.Location, this);</t>
+  </si>
+  <si>
+    <t>const FQuat OldRotation = GetActorQuat();</t>
+  </si>
+  <si>
+    <t>CharacterMovement-&gt;bNetworkSmoothingComplete = false;</t>
+  </si>
+  <si>
+    <t>CharacterMovement-&gt;bJustTeleported |= (OldLocation != NewLocation);</t>
+  </si>
+  <si>
+    <t>CharacterMovement-&gt;SmoothCorrection(OldLocation, OldRotation, NewLocation, ConstRepMovement.Rotation.Quaternion());</t>
+  </si>
+  <si>
+    <t>OnUpdateSimulatedPosition(OldLocation, OldRotation);</t>
+  </si>
+  <si>
+    <t>CharacterMovement-&gt;bNetworkUpdateReceived = true;</t>
+  </si>
+  <si>
+    <t>！！！！设置MESH偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2297,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954C939-0B98-4283-B0F1-A3D148B685E3}">
   <dimension ref="B4:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2309,8 +2418,11 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>251</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -2661,7 +2773,7 @@
     </row>
     <row r="74" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="R74" t="s">
         <v>289</v>
@@ -2691,7 +2803,7 @@
     </row>
     <row r="79" spans="3:23" x14ac:dyDescent="0.2">
       <c r="R79" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="S79" s="3"/>
     </row>
@@ -2709,6 +2821,227 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D1A7AB-7C53-4D91-9A75-8278E5D292FA}">
+  <dimension ref="B3:T52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>344</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
